--- a/03-data-creation/vars_missing.xlsx
+++ b/03-data-creation/vars_missing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanlee/GitHub/stat441-W20-project/03-data-creation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B26B560F-43C3-1C44-AE11-69B0EE16EAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7ADD4567-EF3F-D244-8F2D-865AFB178143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="vars_missing" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="180">
   <si>
     <t>column_name</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>v270,</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1407,13 +1410,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1427,10 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>11</v>
-      </c>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1444,10 +1447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1461,10 +1461,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45</v>
-      </c>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
@@ -1478,10 +1475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>59</v>
-      </c>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>108</v>
       </c>
@@ -1495,10 +1489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,10 +1503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1529,10 +1517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>33</v>
-      </c>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
@@ -1546,10 +1531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44</v>
-      </c>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
@@ -1563,10 +1545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>57</v>
-      </c>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
@@ -1580,10 +1559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1597,10 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>32</v>
-      </c>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
@@ -1614,10 +1587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43</v>
-      </c>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
@@ -1631,10 +1601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>56</v>
-      </c>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1648,10 +1615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1665,10 +1629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>31</v>
-      </c>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1682,10 +1643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>42</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
@@ -1699,10 +1657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>66</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
@@ -1716,10 +1671,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1733,10 +1685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>41</v>
-      </c>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
@@ -1750,10 +1699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>52</v>
-      </c>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
@@ -1767,10 +1713,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>65</v>
-      </c>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
@@ -1784,10 +1727,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>17</v>
-      </c>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1801,10 +1741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>40</v>
-      </c>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
@@ -1818,10 +1755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>51</v>
-      </c>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
@@ -1835,10 +1769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>64</v>
-      </c>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
@@ -1852,10 +1783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>16</v>
-      </c>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,10 +1797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>39</v>
-      </c>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
@@ -1886,10 +1811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>50</v>
-      </c>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
@@ -1903,10 +1825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>63</v>
-      </c>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>116</v>
       </c>
@@ -1920,10 +1839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1937,10 +1853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>38</v>
-      </c>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
@@ -1955,9 +1868,6 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>49</v>
-      </c>
       <c r="B33" s="1" t="s">
         <v>93</v>
       </c>
@@ -1972,9 +1882,6 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>23</v>
-      </c>
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1989,9 +1896,6 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>19</v>
-      </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2006,9 +1910,6 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>62</v>
-      </c>
       <c r="B36" s="1" t="s">
         <v>114</v>
       </c>
@@ -2023,9 +1924,6 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>14</v>
-      </c>
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2040,9 +1938,6 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
       <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2057,9 +1952,6 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>48</v>
-      </c>
       <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
@@ -2074,9 +1966,6 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>6</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2091,9 +1980,6 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>30</v>
-      </c>
       <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
@@ -2108,8 +1994,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>21</v>
+      <c r="A42" t="s">
+        <v>179</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -2128,9 +2014,6 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>3</v>
-      </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2145,9 +2028,6 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>61</v>
-      </c>
       <c r="B44" s="1" t="s">
         <v>112</v>
       </c>
@@ -2162,9 +2042,6 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>13</v>
-      </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
@@ -2179,9 +2056,6 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>36</v>
-      </c>
       <c r="B46" s="1" t="s">
         <v>74</v>
       </c>
@@ -2196,9 +2070,6 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
@@ -2213,8 +2084,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>54</v>
+      <c r="A48" t="s">
+        <v>179</v>
       </c>
       <c r="B48" t="s">
         <v>99</v>
@@ -2233,8 +2104,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>55</v>
+      <c r="A49" t="s">
+        <v>179</v>
       </c>
       <c r="B49" t="s">
         <v>101</v>
@@ -2253,8 +2124,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0</v>
+      <c r="A50" t="s">
+        <v>179</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -2273,8 +2144,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>20</v>
+      <c r="A51" t="s">
+        <v>179</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -2293,9 +2164,6 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>26</v>
-      </c>
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
@@ -2310,8 +2178,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>7</v>
+      <c r="A53" t="s">
+        <v>179</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -2330,8 +2198,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>28</v>
+      <c r="A54" t="s">
+        <v>179</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -2350,9 +2218,6 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>60</v>
-      </c>
       <c r="B55" s="1" t="s">
         <v>110</v>
       </c>
@@ -2367,9 +2232,6 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>12</v>
-      </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
@@ -2384,9 +2246,6 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>35</v>
-      </c>
       <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
@@ -2401,9 +2260,6 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>46</v>
-      </c>
       <c r="B58" s="1" t="s">
         <v>90</v>
       </c>
@@ -2418,8 +2274,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>25</v>
+      <c r="A59" t="s">
+        <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
@@ -2438,8 +2294,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>27</v>
+      <c r="A60" t="s">
+        <v>179</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -2458,9 +2314,6 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>2</v>
-      </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
@@ -2475,9 +2328,6 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>22</v>
-      </c>
       <c r="B62" t="s">
         <v>47</v>
       </c>
@@ -2495,9 +2345,6 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>4</v>
-      </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
@@ -2515,9 +2362,6 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>5</v>
-      </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
@@ -2534,10 +2378,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>29</v>
-      </c>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>61</v>
       </c>
@@ -2554,10 +2395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>24</v>
-      </c>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>51</v>
       </c>
@@ -2574,10 +2412,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>53</v>
-      </c>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>97</v>
       </c>
@@ -2594,10 +2429,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>6</v>
       </c>
@@ -2615,7 +2447,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E68">
     <sortCondition descending="1" ref="C2:C68"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2626,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2644,8 +2476,8 @@
         <v>22</v>
       </c>
       <c r="E1" t="str">
-        <f>_xlfn.CONCAT("v",D1,",")</f>
-        <v>v22,</v>
+        <f>_xlfn.CONCAT("'v",D1,"',")</f>
+        <v>'v22',</v>
       </c>
       <c r="F1" t="s">
         <v>128</v>
@@ -2813,12 +2645,12 @@
         <v>23</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E51" si="1">_xlfn.CONCAT("v",D2,",")</f>
-        <v>v23,</v>
+        <f t="shared" ref="E2:E51" si="1">_xlfn.CONCAT("'v",D2,"',")</f>
+        <v>'v23',</v>
       </c>
       <c r="F2" t="str">
-        <f>_xlfn.CONCAT(F1:BD1)</f>
-        <v>v22,v23,v69,v86,v87,v88,v89,v91,v92,v93,v94,v95,v96,v97,v123,v164,v174,v191,v192,v193,v194,v195,v197,v198,v199,v200,v201,v202,v203,v204,v205,v206,v207,v209,v210,v211,v212,v213,v214,v215,v259,v260,v261,v262,v264,v265,v266,v267,v268,v269,v270,</v>
+        <f>_xlfn.CONCAT(E1:E51)</f>
+        <v>'v22','v23','v69','v86','v87','v88','v89','v91','v92','v93','v94','v95','v96','v97','v123','v164','v174','v191','v192','v193','v194','v195','v197','v198','v199','v200','v201','v202','v203','v204','v205','v206','v207','v209','v210','v211','v212','v213','v214','v215','v259','v260','v261','v262','v264','v265','v266','v267','v268','v269','v270',</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
@@ -2834,7 +2666,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
-        <v>v69,</v>
+        <v>'v69',</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
@@ -2850,7 +2682,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>v86,</v>
+        <v>'v86',</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
@@ -2866,7 +2698,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>v87,</v>
+        <v>'v87',</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
@@ -2882,7 +2714,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>v88,</v>
+        <v>'v88',</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
@@ -2898,7 +2730,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>v89,</v>
+        <v>'v89',</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
@@ -2914,7 +2746,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>v91,</v>
+        <v>'v91',</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
@@ -2930,7 +2762,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>v92,</v>
+        <v>'v92',</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
@@ -2946,7 +2778,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>v93,</v>
+        <v>'v93',</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
@@ -2962,7 +2794,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>v94,</v>
+        <v>'v94',</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
@@ -2978,7 +2810,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>v95,</v>
+        <v>'v95',</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
@@ -2994,7 +2826,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>v96,</v>
+        <v>'v96',</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
@@ -3010,7 +2842,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>v97,</v>
+        <v>'v97',</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
@@ -3026,7 +2858,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>v123,</v>
+        <v>'v123',</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
@@ -3042,7 +2874,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>v164,</v>
+        <v>'v164',</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3058,7 +2890,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>v174,</v>
+        <v>'v174',</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3074,7 +2906,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>v191,</v>
+        <v>'v191',</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3090,7 +2922,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>v192,</v>
+        <v>'v192',</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,7 +2938,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>v193,</v>
+        <v>'v193',</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3122,7 +2954,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>v194,</v>
+        <v>'v194',</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3138,7 +2970,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>v195,</v>
+        <v>'v195',</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,7 +2986,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>v197,</v>
+        <v>'v197',</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,7 +3002,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>v198,</v>
+        <v>'v198',</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3186,7 +3018,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v>v199,</v>
+        <v>'v199',</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,7 +3034,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>v200,</v>
+        <v>'v200',</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3218,7 +3050,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
-        <v>v201,</v>
+        <v>'v201',</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,7 +3066,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
-        <v>v202,</v>
+        <v>'v202',</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3250,7 +3082,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
-        <v>v203,</v>
+        <v>'v203',</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3266,7 +3098,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
-        <v>v204,</v>
+        <v>'v204',</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3282,7 +3114,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
-        <v>v205,</v>
+        <v>'v205',</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3298,7 +3130,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
-        <v>v206,</v>
+        <v>'v206',</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3314,7 +3146,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
-        <v>v207,</v>
+        <v>'v207',</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3330,7 +3162,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
-        <v>v209,</v>
+        <v>'v209',</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3346,7 +3178,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
-        <v>v210,</v>
+        <v>'v210',</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3362,7 +3194,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
-        <v>v211,</v>
+        <v>'v211',</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3378,7 +3210,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
-        <v>v212,</v>
+        <v>'v212',</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,7 +3226,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
-        <v>v213,</v>
+        <v>'v213',</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3410,7 +3242,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
-        <v>v214,</v>
+        <v>'v214',</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3426,7 +3258,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
-        <v>v215,</v>
+        <v>'v215',</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3442,7 +3274,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
-        <v>v259,</v>
+        <v>'v259',</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3458,7 +3290,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
-        <v>v260,</v>
+        <v>'v260',</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3474,7 +3306,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
-        <v>v261,</v>
+        <v>'v261',</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,7 +3322,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
-        <v>v262,</v>
+        <v>'v262',</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3506,7 +3338,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
-        <v>v264,</v>
+        <v>'v264',</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3522,7 +3354,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
-        <v>v265,</v>
+        <v>'v265',</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3538,7 +3370,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
-        <v>v266,</v>
+        <v>'v266',</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3554,7 +3386,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
-        <v>v267,</v>
+        <v>'v267',</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3570,7 +3402,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
-        <v>v268,</v>
+        <v>'v268',</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3586,7 +3418,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
-        <v>v269,</v>
+        <v>'v269',</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3602,7 +3434,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
-        <v>v270,</v>
+        <v>'v270',</v>
       </c>
     </row>
   </sheetData>
